--- a/.FileQuanTrong/TKB-HK3-21-22.xlsx
+++ b/.FileQuanTrong/TKB-HK3-21-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\.FileQuanTrong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A3DFA-BB15-4A70-B69F-661121FA4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87197F0-CA9E-4513-A3FA-FE031C301902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4AFEDBC8-C5EC-4115-B2DC-7C38AD8AACCD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>TKB</t>
   </si>
@@ -63,22 +63,13 @@
     <t>AjaxPro.timeoutPeriod=1000000</t>
   </si>
   <si>
-    <t>861303 - Nhóm 10 - Chủ nghĩa xã hội khoa học - L.Đ.Lục</t>
-  </si>
-  <si>
     <t>CNXH</t>
-  </si>
-  <si>
-    <t>TA3</t>
   </si>
   <si>
     <t>866103 - Nhóm 07 -  Tiếng Anh III - N.H.T.Tâm</t>
   </si>
   <si>
-    <t>BODA11 - Nhóm 02 -  Bóng đá 1 - L.K.Giang</t>
-  </si>
-  <si>
-    <t>BĐ1</t>
+    <t>861303 - Nhóm 01 - Chủ nghĩa xã hội khoa học - N.T.H.Oanh</t>
   </si>
 </sst>
 </file>
@@ -165,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -192,17 +183,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -367,19 +347,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -397,32 +364,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,68 +375,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,37 +473,22 @@
     <xf numFmtId="1" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -852,20 +805,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EAF351-7D9D-4DD6-B5CC-D4FBC91A7DBA}">
-  <dimension ref="G13:T52"/>
+  <dimension ref="G13:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="13" spans="7:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="14" t="s">
         <v>1</v>
       </c>
@@ -892,8 +845,8 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -908,10 +861,10 @@
       <c r="T15" s="17"/>
     </row>
     <row r="16" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="7">
+      <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -926,8 +879,8 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -942,10 +895,10 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="7">
+      <c r="G18" s="18">
         <v>2</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -960,8 +913,8 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -976,10 +929,10 @@
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="7">
+      <c r="G20" s="18">
         <v>3</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -994,8 +947,8 @@
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1010,10 +963,10 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="7">
+      <c r="G22" s="18">
         <v>4</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1028,8 +981,8 @@
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1044,10 +997,10 @@
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="7">
+      <c r="G24" s="18">
         <v>5</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1062,8 +1015,8 @@
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="7:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1078,222 +1031,212 @@
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="27"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="26"/>
     </row>
     <row r="27" spans="7:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="12">
+      <c r="G28" s="34">
         <v>6</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="31"/>
-      <c r="O28" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" s="31"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="7"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="33"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="7">
+      <c r="G30" s="18">
         <v>7</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="33"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="7"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="33"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="7">
+      <c r="G32" s="18">
         <v>8</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="33"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="7:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G33" s="7"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="35"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="7">
+      <c r="G34" s="18">
         <v>9</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="8"/>
       <c r="S34" s="1"/>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="7"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="10"/>
       <c r="S35" s="1"/>
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="7:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="7">
+      <c r="G36" s="18">
         <v>10</v>
       </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="10"/>
       <c r="S36" s="1"/>
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="7:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G37" s="9"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
       <c r="S37" s="3"/>
       <c r="T37" s="4"/>
     </row>
@@ -1302,7 +1245,7 @@
     </row>
     <row r="40" spans="7:20" ht="21" x14ac:dyDescent="0.3">
       <c r="G40" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -1317,7 +1260,7 @@
     </row>
     <row r="41" spans="7:20" ht="21" x14ac:dyDescent="0.3">
       <c r="G41" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -1330,20 +1273,8 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="7:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="G42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
+    <row r="42" spans="7:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="7:20" ht="21" x14ac:dyDescent="0.4">
       <c r="Q43" s="5"/>
@@ -1352,6 +1283,18 @@
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="7:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="G45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="7:20" ht="21" x14ac:dyDescent="0.4">
@@ -1362,33 +1305,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="7:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="G52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="G42:Q42"/>
-    <mergeCell ref="K34:L37"/>
-    <mergeCell ref="O34:P37"/>
-    <mergeCell ref="M28:N33"/>
-    <mergeCell ref="Q28:R33"/>
-    <mergeCell ref="G41:Q41"/>
-    <mergeCell ref="K28:L33"/>
-    <mergeCell ref="O28:P33"/>
-    <mergeCell ref="G52:P52"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:R15"/>
+  <mergeCells count="24">
+    <mergeCell ref="G34:H35"/>
     <mergeCell ref="S14:T15"/>
     <mergeCell ref="G16:H17"/>
     <mergeCell ref="G18:H19"/>
@@ -1396,18 +1315,22 @@
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="K14:L15"/>
     <mergeCell ref="M14:N15"/>
+    <mergeCell ref="G41:Q41"/>
+    <mergeCell ref="M34:N37"/>
+    <mergeCell ref="Q34:R37"/>
+    <mergeCell ref="G45:P45"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:R15"/>
     <mergeCell ref="G26:T27"/>
     <mergeCell ref="G40:Q40"/>
     <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I28:J33"/>
     <mergeCell ref="G36:H37"/>
     <mergeCell ref="G22:H23"/>
+    <mergeCell ref="O34:P37"/>
     <mergeCell ref="G24:H25"/>
     <mergeCell ref="G28:H29"/>
     <mergeCell ref="G30:H31"/>
     <mergeCell ref="G32:H33"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="I34:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
